--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:26:28+00:00</t>
+    <t>2024-05-21T07:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T07:48:00+00:00</t>
+    <t>2024-05-21T11:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:15:54+00:00</t>
+    <t>2024-05-22T12:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-codeSystemName.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
